--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ptn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H2">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I2">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J2">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N2">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q2">
-        <v>48.76300475707233</v>
+        <v>79.59754879044955</v>
       </c>
       <c r="R2">
-        <v>438.8670428136509</v>
+        <v>716.3779391140461</v>
       </c>
       <c r="S2">
-        <v>0.002137814389121885</v>
+        <v>0.002950133894508386</v>
       </c>
       <c r="T2">
-        <v>0.002137814389121884</v>
+        <v>0.002950133894508385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H3">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I3">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J3">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
         <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q3">
-        <v>53.09384045490798</v>
+        <v>84.69935711748133</v>
       </c>
       <c r="R3">
-        <v>477.8445640941719</v>
+        <v>762.2942140573321</v>
       </c>
       <c r="S3">
-        <v>0.002327682157071787</v>
+        <v>0.003139222853874273</v>
       </c>
       <c r="T3">
-        <v>0.002327682157071786</v>
+        <v>0.003139222853874272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H4">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I4">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J4">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N4">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q4">
-        <v>101.0730207225213</v>
+        <v>222.2543105399564</v>
       </c>
       <c r="R4">
-        <v>909.6571865026918</v>
+        <v>2000.288794859608</v>
       </c>
       <c r="S4">
-        <v>0.004431132969124141</v>
+        <v>0.008237439276562107</v>
       </c>
       <c r="T4">
-        <v>0.00443113296912414</v>
+        <v>0.008237439276562106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H5">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I5">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J5">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N5">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q5">
-        <v>5.011760328923</v>
+        <v>8.032762648270555</v>
       </c>
       <c r="R5">
-        <v>45.10584296030699</v>
+        <v>72.29486383443501</v>
       </c>
       <c r="S5">
-        <v>0.0002197201218296107</v>
+        <v>0.0002977192855221096</v>
       </c>
       <c r="T5">
-        <v>0.0002197201218296106</v>
+        <v>0.0002977192855221096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H6">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I6">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J6">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N6">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O6">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P6">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q6">
-        <v>102.0995629980213</v>
+        <v>179.7068273401683</v>
       </c>
       <c r="R6">
-        <v>918.8960669821918</v>
+        <v>1617.361446061515</v>
       </c>
       <c r="S6">
-        <v>0.004476137514240641</v>
+        <v>0.006660496591503173</v>
       </c>
       <c r="T6">
-        <v>0.004476137514240641</v>
+        <v>0.006660496591503171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>309.115586</v>
       </c>
       <c r="I7">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J7">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N7">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q7">
-        <v>3443.319878545471</v>
+        <v>3523.30817315676</v>
       </c>
       <c r="R7">
-        <v>30989.87890690924</v>
+        <v>31709.77355841084</v>
       </c>
       <c r="S7">
-        <v>0.1509582688633703</v>
+        <v>0.1305848109693966</v>
       </c>
       <c r="T7">
-        <v>0.1509582688633702</v>
+        <v>0.1305848109693966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>309.115586</v>
       </c>
       <c r="I8">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J8">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
         <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q8">
-        <v>3749.134762664338</v>
+        <v>3749.134762664339</v>
       </c>
       <c r="R8">
         <v>33742.21286397905</v>
       </c>
       <c r="S8">
-        <v>0.1643654709612298</v>
+        <v>0.138954650067601</v>
       </c>
       <c r="T8">
-        <v>0.1643654709612298</v>
+        <v>0.138954650067601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>309.115586</v>
       </c>
       <c r="I9">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J9">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N9">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q9">
-        <v>7137.106156035637</v>
+        <v>9837.871149855124</v>
       </c>
       <c r="R9">
-        <v>64233.95540432073</v>
+        <v>88540.84034869612</v>
       </c>
       <c r="S9">
-        <v>0.3128972119965691</v>
+        <v>0.3646222474187056</v>
       </c>
       <c r="T9">
-        <v>0.3128972119965691</v>
+        <v>0.3646222474187055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>309.115586</v>
       </c>
       <c r="I10">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J10">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N10">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q10">
-        <v>353.8972639823487</v>
+        <v>355.5624352979544</v>
       </c>
       <c r="R10">
-        <v>3185.075375841138</v>
+        <v>3200.06191768159</v>
       </c>
       <c r="S10">
-        <v>0.01551517727386565</v>
+        <v>0.01317825495792527</v>
       </c>
       <c r="T10">
-        <v>0.01551517727386565</v>
+        <v>0.01317825495792527</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>309.115586</v>
       </c>
       <c r="I11">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J11">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N11">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O11">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P11">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q11">
-        <v>7209.593760952636</v>
+        <v>7954.548138241856</v>
       </c>
       <c r="R11">
-        <v>64886.34384857373</v>
+        <v>71590.9332441767</v>
       </c>
       <c r="S11">
-        <v>0.3160751343907396</v>
+        <v>0.2948204113660035</v>
       </c>
       <c r="T11">
-        <v>0.3160751343907396</v>
+        <v>0.2948204113660035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H12">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I12">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J12">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N12">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q12">
-        <v>95.41396065015844</v>
+        <v>135.9477931991369</v>
       </c>
       <c r="R12">
-        <v>858.725645851426</v>
+        <v>1223.530138792232</v>
       </c>
       <c r="S12">
-        <v>0.004183034639009489</v>
+        <v>0.005038650042556482</v>
       </c>
       <c r="T12">
-        <v>0.004183034639009488</v>
+        <v>0.005038650042556481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H13">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I13">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J13">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N13">
         <v>109.157268</v>
       </c>
       <c r="O13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q13">
-        <v>103.8880526162746</v>
+        <v>144.6613728749493</v>
       </c>
       <c r="R13">
-        <v>934.9924735464717</v>
+        <v>1301.952355874544</v>
       </c>
       <c r="S13">
-        <v>0.004554546522457932</v>
+        <v>0.005361602534621138</v>
       </c>
       <c r="T13">
-        <v>0.004554546522457932</v>
+        <v>0.005361602534621136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H14">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I14">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J14">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N14">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q14">
-        <v>197.7683137053324</v>
+        <v>379.5969034982151</v>
       </c>
       <c r="R14">
-        <v>1779.914823347992</v>
+        <v>3416.372131483936</v>
       </c>
       <c r="S14">
-        <v>0.008670342380620239</v>
+        <v>0.01406904745532665</v>
       </c>
       <c r="T14">
-        <v>0.008670342380620238</v>
+        <v>0.01406904745532665</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H15">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I15">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J15">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N15">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q15">
-        <v>9.806448663164666</v>
+        <v>13.71947216866889</v>
       </c>
       <c r="R15">
-        <v>88.258037968482</v>
+        <v>123.47524951802</v>
       </c>
       <c r="S15">
-        <v>0.0004299236103832985</v>
+        <v>0.0005084865108862602</v>
       </c>
       <c r="T15">
-        <v>0.0004299236103832983</v>
+        <v>0.0005084865108862601</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.975769333333333</v>
+      </c>
+      <c r="H16">
+        <v>11.927308</v>
+      </c>
+      <c r="I16">
+        <v>0.03635351138648862</v>
+      </c>
+      <c r="J16">
+        <v>0.03635351138648861</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N16">
+        <v>231.599235</v>
+      </c>
+      <c r="O16">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P16">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q16">
+        <v>306.9283787121533</v>
+      </c>
+      <c r="R16">
+        <v>2762.35540840938</v>
+      </c>
+      <c r="S16">
+        <v>0.01137572484309809</v>
+      </c>
+      <c r="T16">
+        <v>0.01137572484309809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.06598</v>
+      </c>
+      <c r="I17">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J17">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>34.19408466666667</v>
+      </c>
+      <c r="N17">
+        <v>102.582254</v>
+      </c>
+      <c r="O17">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="P17">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="Q17">
+        <v>0.7520419021022223</v>
+      </c>
+      <c r="R17">
+        <v>6.76837711892</v>
+      </c>
+      <c r="S17">
+        <v>2.787302296611077E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.787302296611076E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.06598</v>
+      </c>
+      <c r="I18">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J18">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>36.385756</v>
+      </c>
+      <c r="N18">
+        <v>109.157268</v>
+      </c>
+      <c r="O18">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="P18">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="Q18">
+        <v>0.8002440602933334</v>
+      </c>
+      <c r="R18">
+        <v>7.202196542639999</v>
+      </c>
+      <c r="S18">
+        <v>2.965954557678083E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.965954557678082E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.855184666666666</v>
-      </c>
-      <c r="H16">
-        <v>8.565553999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="J16">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>69.96988266666666</v>
-      </c>
-      <c r="N16">
-        <v>209.909648</v>
-      </c>
-      <c r="O16">
-        <v>0.3293096741153467</v>
-      </c>
-      <c r="P16">
-        <v>0.3293096741153468</v>
-      </c>
-      <c r="Q16">
-        <v>199.7769361183324</v>
-      </c>
-      <c r="R16">
-        <v>1797.992425064992</v>
-      </c>
-      <c r="S16">
-        <v>0.008758402210366504</v>
-      </c>
-      <c r="T16">
-        <v>0.008758402210366502</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.06598</v>
+      </c>
+      <c r="I19">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J19">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>95.47759733333334</v>
+      </c>
+      <c r="N19">
+        <v>286.432792</v>
+      </c>
+      <c r="O19">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="P19">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="Q19">
+        <v>2.099870624017778</v>
+      </c>
+      <c r="R19">
+        <v>18.89883561616</v>
+      </c>
+      <c r="S19">
+        <v>7.78277672633634E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.782776726336337E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.06598</v>
+      </c>
+      <c r="I20">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J20">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.450771666666667</v>
+      </c>
+      <c r="N20">
+        <v>10.352315</v>
+      </c>
+      <c r="O20">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="P20">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="Q20">
+        <v>0.07589397152222223</v>
+      </c>
+      <c r="R20">
+        <v>0.6830457437</v>
+      </c>
+      <c r="S20">
+        <v>2.812867747548352E-06</v>
+      </c>
+      <c r="T20">
+        <v>2.812867747548352E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.06598</v>
+      </c>
+      <c r="I21">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J21">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N21">
+        <v>231.599235</v>
+      </c>
+      <c r="O21">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P21">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q21">
+        <v>1.697879725033333</v>
+      </c>
+      <c r="R21">
+        <v>15.2809175253</v>
+      </c>
+      <c r="S21">
+        <v>6.292872835577082E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.29287283557708E-05</v>
       </c>
     </row>
   </sheetData>
